--- a/10-西湖论剑/01-告警误报检测/result.xlsx
+++ b/10-西湖论剑/01-告警误报检测/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,18 +375,18 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -403,7 +403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44126</v>
       </c>
@@ -415,6 +415,9 @@
       </c>
       <c r="E2" s="1">
         <v>0.97689999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>95.983199999999997</v>
       </c>
     </row>
   </sheetData>
